--- a/newscontent.xlsx
+++ b/newscontent.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/choyera_myvuw_ac_nz/Documents/Documents/Annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="8_{0965477B-166D-4EF4-899E-20B5D4B85F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0F0A69CC-EF34-4496-A6D0-29DB8B8C6993}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{0965477B-166D-4EF4-899E-20B5D4B85F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25900ADB-2CF2-43D9-8E1C-E4CC3404BDDB}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D5AF619-8BCE-49B6-B66D-4C442B14D212}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>articletext</t>
   </si>
@@ -994,12 +994,75 @@
 Food prices are at their highest since records began 60 years ago, according to the index, after they jumped nearly 13% in March, following February's record high.
 Food commodity prices were already at 10-year highs before the war in Ukraine, according to the index, because of global harvest issues.</t>
   </si>
+  <si>
+    <t>articletitle</t>
+  </si>
+  <si>
+    <t>Books that explain the world: Guardian writers share their best nonfiction reads of the year</t>
+  </si>
+  <si>
+    <t>Could he? Will they? What if? What might happen next in Succession</t>
+  </si>
+  <si>
+    <t>Rajan the last ocean-swimming elephant: Jody MacDonald’s best photograph</t>
+  </si>
+  <si>
+    <t>‘I’ve healed. I don’t want to be the badass’ – Noomi Rapace on beating her Dragon Tattoo trauma</t>
+  </si>
+  <si>
+    <t>Shatner in Space: Captain Kirk’s in a willy-shaped spaceship – and it’s poetry in motion</t>
+  </si>
+  <si>
+    <t>I lost more than £12,000 in a scam and the Co-operative Bank won’t resolve it</t>
+  </si>
+  <si>
+    <t>Are we witnessing the dawn of post-theory science?</t>
+  </si>
+  <si>
+    <t>‘A Rosetta Stone’: Australian fossil site is a vivid window into 15m-year-old rainforest</t>
+  </si>
+  <si>
+    <t>I'm still repaying my repaid student loan</t>
+  </si>
+  <si>
+    <t>England’s new attack stutters as West Indies’ Holder and Bonner stand firm</t>
+  </si>
+  <si>
+    <t>Spain reverses plan to open up to unvaccinated British visitors</t>
+  </si>
+  <si>
+    <t>All the flights cancelled today from UK airports</t>
+  </si>
+  <si>
+    <t>Government defeated over voter ID plans in House of Lords</t>
+  </si>
+  <si>
+    <t>‘We’ve been trying warn you for so many decades’: Nasa climate scientist breaks down in tears at protest</t>
+  </si>
+  <si>
+    <t>Student who went to A&amp;E with stomach cramps gives birth to healthy baby boy</t>
+  </si>
+  <si>
+    <t>Theresa May: We're on course to deliver Brexit despite vote</t>
+  </si>
+  <si>
+    <t>This season at Nats Park: Plenty of good seats and a quest to find joy</t>
+  </si>
+  <si>
+    <t>Cristiano Ronaldo scores landmark goal days after death of infant son</t>
+  </si>
+  <si>
+    <t>Division III basketball player apologizes for brutal sucker punch</t>
+  </si>
+  <si>
+    <t>Ukraine war: World Bank warns of 'human catastrophe' food crisis</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,6 +1091,15 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1081,7 +1153,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1093,6 +1165,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1408,184 +1483,248 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE36E3F-19A8-4CBA-A0A9-03FE5C0937D4}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="157.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="409.5">
+      <c r="C1" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="409.5">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="409.5">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="409.5">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="409.5">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="409.5">
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="409.5">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="409.5">
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="409.5">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="409.5">
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="409.5">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="409.5">
+      <c r="C7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="409.5">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="409.5">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="409.5">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="409.5">
+      <c r="C9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="409.5">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="409.5">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="409.5">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="409.5">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="409.5">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="409.5">
+      <c r="C12" s="6" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="409.5">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="409.5">
+      <c r="C13" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="409.5">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
       <c r="B14" s="3">
         <v>61017998</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="409.5">
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="409.5">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="409.5">
+      <c r="C15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="409.5">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="409.5">
+      <c r="C16" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="409.5">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3">
         <v>42346898</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="409.5">
+      <c r="C17" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="409.5">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>20220422</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="409.5">
+      <c r="C18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="409.5">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>20220424</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="409.5">
+      <c r="C19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="409.5">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3">
         <v>20181114</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="409.5">
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="409.5">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="3">
         <v>61171529</v>
+      </c>
+      <c r="C21" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/newscontent.xlsx
+++ b/newscontent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/choyera_myvuw_ac_nz/Documents/Documents/Annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{0965477B-166D-4EF4-899E-20B5D4B85F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{25900ADB-2CF2-43D9-8E1C-E4CC3404BDDB}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{0965477B-166D-4EF4-899E-20B5D4B85F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D41949-75A5-4D89-96E7-AB90A9E4796D}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D5AF619-8BCE-49B6-B66D-4C442B14D212}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>articletext</t>
   </si>
@@ -993,69 +993,6 @@
 The UN Food Prices Index tracks the world's most-traded food commodities - measuring the average prices of cereal, vegetable oil, dairy, meat, and sugar.
 Food prices are at their highest since records began 60 years ago, according to the index, after they jumped nearly 13% in March, following February's record high.
 Food commodity prices were already at 10-year highs before the war in Ukraine, according to the index, because of global harvest issues.</t>
-  </si>
-  <si>
-    <t>articletitle</t>
-  </si>
-  <si>
-    <t>Books that explain the world: Guardian writers share their best nonfiction reads of the year</t>
-  </si>
-  <si>
-    <t>Could he? Will they? What if? What might happen next in Succession</t>
-  </si>
-  <si>
-    <t>Rajan the last ocean-swimming elephant: Jody MacDonald’s best photograph</t>
-  </si>
-  <si>
-    <t>‘I’ve healed. I don’t want to be the badass’ – Noomi Rapace on beating her Dragon Tattoo trauma</t>
-  </si>
-  <si>
-    <t>Shatner in Space: Captain Kirk’s in a willy-shaped spaceship – and it’s poetry in motion</t>
-  </si>
-  <si>
-    <t>I lost more than £12,000 in a scam and the Co-operative Bank won’t resolve it</t>
-  </si>
-  <si>
-    <t>Are we witnessing the dawn of post-theory science?</t>
-  </si>
-  <si>
-    <t>‘A Rosetta Stone’: Australian fossil site is a vivid window into 15m-year-old rainforest</t>
-  </si>
-  <si>
-    <t>I'm still repaying my repaid student loan</t>
-  </si>
-  <si>
-    <t>England’s new attack stutters as West Indies’ Holder and Bonner stand firm</t>
-  </si>
-  <si>
-    <t>Spain reverses plan to open up to unvaccinated British visitors</t>
-  </si>
-  <si>
-    <t>All the flights cancelled today from UK airports</t>
-  </si>
-  <si>
-    <t>Government defeated over voter ID plans in House of Lords</t>
-  </si>
-  <si>
-    <t>‘We’ve been trying warn you for so many decades’: Nasa climate scientist breaks down in tears at protest</t>
-  </si>
-  <si>
-    <t>Student who went to A&amp;E with stomach cramps gives birth to healthy baby boy</t>
-  </si>
-  <si>
-    <t>Theresa May: We're on course to deliver Brexit despite vote</t>
-  </si>
-  <si>
-    <t>This season at Nats Park: Plenty of good seats and a quest to find joy</t>
-  </si>
-  <si>
-    <t>Cristiano Ronaldo scores landmark goal days after death of infant son</t>
-  </si>
-  <si>
-    <t>Division III basketball player apologizes for brutal sucker punch</t>
-  </si>
-  <si>
-    <t>Ukraine war: World Bank warns of 'human catastrophe' food crisis</t>
   </si>
 </sst>
 </file>
@@ -1485,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE36E3F-19A8-4CBA-A0A9-03FE5C0937D4}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1503,9 +1440,7 @@
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3" ht="409.5">
       <c r="A2" s="4" t="s">
@@ -1514,9 +1449,6 @@
       <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>37</v>
-      </c>
     </row>
     <row r="3" spans="1:3" ht="409.5">
       <c r="A3" s="4" t="s">
@@ -1525,9 +1457,6 @@
       <c r="B3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>38</v>
-      </c>
     </row>
     <row r="4" spans="1:3" ht="409.5">
       <c r="A4" s="4" t="s">
@@ -1536,9 +1465,6 @@
       <c r="B4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
     </row>
     <row r="5" spans="1:3" ht="409.5">
       <c r="A5" s="4" t="s">
@@ -1547,9 +1473,6 @@
       <c r="B5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="1:3" ht="409.5">
       <c r="A6" s="4" t="s">
@@ -1558,9 +1481,6 @@
       <c r="B6" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C6" t="s">
-        <v>41</v>
-      </c>
     </row>
     <row r="7" spans="1:3" ht="409.5">
       <c r="A7" s="4" t="s">
@@ -1569,9 +1489,6 @@
       <c r="B7" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C7" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="8" spans="1:3" ht="409.5">
       <c r="A8" s="4" t="s">
@@ -1580,9 +1497,6 @@
       <c r="B8" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C8" t="s">
-        <v>43</v>
-      </c>
     </row>
     <row r="9" spans="1:3" ht="409.5">
       <c r="A9" s="4" t="s">
@@ -1591,9 +1505,6 @@
       <c r="B9" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C9" t="s">
-        <v>44</v>
-      </c>
     </row>
     <row r="10" spans="1:3" ht="409.5">
       <c r="A10" s="4" t="s">
@@ -1602,9 +1513,6 @@
       <c r="B10" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C10" t="s">
-        <v>45</v>
-      </c>
     </row>
     <row r="11" spans="1:3" ht="409.5">
       <c r="A11" s="4" t="s">
@@ -1613,9 +1521,6 @@
       <c r="B11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C11" t="s">
-        <v>46</v>
-      </c>
     </row>
     <row r="12" spans="1:3" ht="409.5">
       <c r="A12" s="5" t="s">
@@ -1624,9 +1529,7 @@
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
-        <v>47</v>
-      </c>
+      <c r="C12" s="6"/>
     </row>
     <row r="13" spans="1:3" ht="409.5">
       <c r="A13" s="5" t="s">
@@ -1635,9 +1538,7 @@
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>48</v>
-      </c>
+      <c r="C13" s="6"/>
     </row>
     <row r="14" spans="1:3" ht="409.5">
       <c r="A14" s="4" t="s">
@@ -1646,9 +1547,6 @@
       <c r="B14" s="3">
         <v>61017998</v>
       </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
     </row>
     <row r="15" spans="1:3" ht="409.5">
       <c r="A15" s="4" t="s">
@@ -1657,9 +1555,6 @@
       <c r="B15" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="16" spans="1:3" ht="409.5">
       <c r="A16" s="4" t="s">
@@ -1668,63 +1563,45 @@
       <c r="B16" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="409.5">
+    </row>
+    <row r="17" spans="1:2" ht="409.5">
       <c r="A17" s="4" t="s">
         <v>31</v>
       </c>
       <c r="B17" s="3">
         <v>42346898</v>
       </c>
-      <c r="C17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="409.5">
+    </row>
+    <row r="18" spans="1:2" ht="409.5">
       <c r="A18" s="4" t="s">
         <v>32</v>
       </c>
       <c r="B18" s="3">
         <v>20220422</v>
       </c>
-      <c r="C18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="409.5">
+    </row>
+    <row r="19" spans="1:2" ht="409.5">
       <c r="A19" s="4" t="s">
         <v>33</v>
       </c>
       <c r="B19" s="3">
         <v>20220424</v>
       </c>
-      <c r="C19" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="409.5">
+    </row>
+    <row r="20" spans="1:2" ht="409.5">
       <c r="A20" s="4" t="s">
         <v>34</v>
       </c>
       <c r="B20" s="3">
         <v>20181114</v>
       </c>
-      <c r="C20" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="409.5">
+    </row>
+    <row r="21" spans="1:2" ht="409.5">
       <c r="A21" s="4" t="s">
         <v>35</v>
       </c>
       <c r="B21" s="3">
         <v>61171529</v>
-      </c>
-      <c r="C21" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/newscontent.xlsx
+++ b/newscontent.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myvuwac-my.sharepoint.com/personal/choyera_myvuw_ac_nz/Documents/Documents/Annotations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{0965477B-166D-4EF4-899E-20B5D4B85F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56D41949-75A5-4D89-96E7-AB90A9E4796D}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{0965477B-166D-4EF4-899E-20B5D4B85F4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD5A123-30D6-48B6-AFBE-64D11DCAAD8C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0D5AF619-8BCE-49B6-B66D-4C442B14D212}"/>
   </bookViews>
@@ -999,7 +999,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1028,15 +1028,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="24"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1090,7 +1081,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1102,9 +1093,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1420,29 +1408,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8EE36E3F-19A8-4CBA-A0A9-03FE5C0937D4}">
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="157.5703125" customWidth="1"/>
     <col min="2" max="2" width="37.7109375" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1"/>
-    </row>
-    <row r="2" spans="1:3" ht="409.5">
+    </row>
+    <row r="2" spans="1:2" ht="409.5">
       <c r="A2" s="4" t="s">
         <v>12</v>
       </c>
@@ -1450,7 +1436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="409.5">
+    <row r="3" spans="1:2" ht="409.5">
       <c r="A3" s="4" t="s">
         <v>13</v>
       </c>
@@ -1458,7 +1444,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="409.5">
+    <row r="4" spans="1:2" ht="409.5">
       <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
@@ -1466,7 +1452,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="409.5">
+    <row r="5" spans="1:2" ht="409.5">
       <c r="A5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1474,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="409.5">
+    <row r="6" spans="1:2" ht="409.5">
       <c r="A6" s="4" t="s">
         <v>16</v>
       </c>
@@ -1482,7 +1468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="409.5">
+    <row r="7" spans="1:2" ht="409.5">
       <c r="A7" s="4" t="s">
         <v>17</v>
       </c>
@@ -1490,7 +1476,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="409.5">
+    <row r="8" spans="1:2" ht="409.5">
       <c r="A8" s="4" t="s">
         <v>18</v>
       </c>
@@ -1498,7 +1484,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="409.5">
+    <row r="9" spans="1:2" ht="409.5">
       <c r="A9" s="4" t="s">
         <v>19</v>
       </c>
@@ -1506,7 +1492,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="409.5">
+    <row r="10" spans="1:2" ht="409.5">
       <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
@@ -1514,7 +1500,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="409.5">
+    <row r="11" spans="1:2" ht="409.5">
       <c r="A11" s="4" t="s">
         <v>21</v>
       </c>
@@ -1522,25 +1508,23 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="409.5">
+    <row r="12" spans="1:2" ht="409.5">
       <c r="A12" s="5" t="s">
         <v>26</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="409.5">
+    </row>
+    <row r="13" spans="1:2" ht="409.5">
       <c r="A13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="409.5">
+    </row>
+    <row r="14" spans="1:2" ht="409.5">
       <c r="A14" s="4" t="s">
         <v>28</v>
       </c>
@@ -1548,7 +1532,7 @@
         <v>61017998</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="409.5">
+    <row r="15" spans="1:2" ht="409.5">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -1556,7 +1540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="409.5">
+    <row r="16" spans="1:2" ht="409.5">
       <c r="A16" s="4" t="s">
         <v>30</v>
       </c>
